--- a/raw-data-prep/raw_data/Debrief_HS.xlsx
+++ b/raw-data-prep/raw_data/Debrief_HS.xlsx
@@ -270,10 +270,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>GaMaybee.affect.distractioNo</t>
-  </si>
-  <si>
     <t>Maybe</t>
+  </si>
+  <si>
+    <t>Game.affect.distraction</t>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
   <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s">
         <v>82</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s">
         <v>81</v>
@@ -1402,7 +1402,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P15" t="s">
         <v>81</v>
@@ -1514,7 +1514,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P17" t="s">
         <v>81</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P18" t="s">
         <v>82</v>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" t="s">
         <v>81</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P34" t="s">
         <v>82</v>
@@ -2566,7 +2566,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -2622,7 +2622,7 @@
         <v>81</v>
       </c>
       <c r="P36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P41" t="s">
         <v>81</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P49" t="s">
         <v>81</v>
@@ -3462,7 +3462,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P56" t="s">
         <v>81</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P61" t="s">
         <v>81</v>

--- a/raw-data-prep/raw_data/Debrief_HS.xlsx
+++ b/raw-data-prep/raw_data/Debrief_HS.xlsx
@@ -24,45 +24,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>1.a</t>
-  </si>
-  <si>
-    <t>1.b</t>
-  </si>
-  <si>
-    <t>1.c</t>
-  </si>
-  <si>
-    <t>1.d</t>
-  </si>
-  <si>
-    <t>1.e</t>
-  </si>
-  <si>
-    <t>2.a</t>
-  </si>
-  <si>
-    <t>2.b</t>
-  </si>
-  <si>
-    <t>2.c</t>
-  </si>
-  <si>
-    <t>2.d</t>
-  </si>
-  <si>
-    <t>2.e</t>
-  </si>
-  <si>
-    <t>2.f</t>
-  </si>
-  <si>
-    <t>2.g</t>
-  </si>
-  <si>
-    <t>2.h</t>
-  </si>
-  <si>
     <t>Surprise</t>
   </si>
   <si>
@@ -274,6 +235,45 @@
   </si>
   <si>
     <t>Game.affect.distraction</t>
+  </si>
+  <si>
+    <t>Q1.a</t>
+  </si>
+  <si>
+    <t>Q1.b</t>
+  </si>
+  <si>
+    <t>Q1.c</t>
+  </si>
+  <si>
+    <t>Q1.d</t>
+  </si>
+  <si>
+    <t>Q1.e</t>
+  </si>
+  <si>
+    <t>Q2.a</t>
+  </si>
+  <si>
+    <t>Q2.b</t>
+  </si>
+  <si>
+    <t>Q2.c</t>
+  </si>
+  <si>
+    <t>Q2.d</t>
+  </si>
+  <si>
+    <t>Q2.e</t>
+  </si>
+  <si>
+    <t>Q2.f</t>
+  </si>
+  <si>
+    <t>Q2.g</t>
+  </si>
+  <si>
+    <t>Q2.h</t>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
   <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,55 +632,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q3">
         <v>4</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -839,16 +839,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -895,16 +895,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q5">
         <v>5</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -951,16 +951,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q7">
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q8">
         <v>4</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1119,16 +1119,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q9">
         <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q10">
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1231,16 +1231,16 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q11">
         <v>3</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1287,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
       <c r="R12" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1343,16 +1343,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q13">
         <v>4</v>
       </c>
       <c r="R13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1399,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1455,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1511,16 +1511,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q16">
         <v>4</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q17">
         <v>4</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1623,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1735,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P20" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1791,16 +1791,16 @@
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P21" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q21">
         <v>5</v>
       </c>
       <c r="R21" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1847,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P22" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1903,16 +1903,16 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P23" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q23">
         <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -1959,16 +1959,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P24" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q24">
         <v>3</v>
       </c>
       <c r="R24" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2015,16 +2015,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P25" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q25">
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2071,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P26" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2127,16 +2127,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P27" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q27">
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2183,16 +2183,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P28" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q28">
         <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2239,16 +2239,16 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P29" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q29">
         <v>3</v>
       </c>
       <c r="R29" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P30" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q30">
         <v>4</v>
       </c>
       <c r="R30" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2395,16 +2395,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P32" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q32">
         <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q33">
         <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2507,16 +2507,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P34" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q34">
         <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P35" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q35">
         <v>4</v>
       </c>
       <c r="R35" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2619,16 +2619,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P36" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q36">
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2675,16 +2675,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P37" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q37">
         <v>3</v>
       </c>
       <c r="R37" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2731,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P38" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q38">
         <v>4</v>
       </c>
       <c r="R38" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2787,16 +2787,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P39" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q39">
         <v>3</v>
       </c>
       <c r="R39" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P40" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q40">
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2899,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P41" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q41">
         <v>2</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P42" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q42">
         <v>4</v>
       </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3011,16 +3011,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P43" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q43">
         <v>4</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3067,16 +3067,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P44" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q44">
         <v>4</v>
       </c>
       <c r="R44" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3123,16 +3123,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P45" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q45">
         <v>2</v>
       </c>
       <c r="R45" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3179,16 +3179,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P46" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q46">
         <v>4</v>
       </c>
       <c r="R46" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P47" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q47">
         <v>2</v>
       </c>
       <c r="R47" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3291,16 +3291,16 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P48" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q48">
         <v>2</v>
       </c>
       <c r="R48" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3347,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P49" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q49">
         <v>3</v>
       </c>
       <c r="R49" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3403,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P50" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q50">
         <v>4</v>
       </c>
       <c r="R50" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3459,16 +3459,16 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P51" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3515,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P52" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q52">
         <v>2</v>
       </c>
       <c r="R52" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3571,16 +3571,16 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P53" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q53">
         <v>2</v>
       </c>
       <c r="R53" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P54" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q54">
         <v>1</v>
       </c>
       <c r="R54" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -3683,16 +3683,16 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P55" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q55">
         <v>5</v>
       </c>
       <c r="R55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -3739,16 +3739,16 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P56" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q56">
         <v>3</v>
       </c>
       <c r="R56" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3795,16 +3795,16 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P57" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q57">
         <v>4</v>
       </c>
       <c r="R57" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3851,16 +3851,16 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P58" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q58">
         <v>3</v>
       </c>
       <c r="R58" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P59" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q59">
         <v>2</v>
       </c>
       <c r="R59" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -3963,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P60" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q60">
         <v>5</v>
       </c>
       <c r="R60" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4019,16 +4019,16 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P61" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
       <c r="R61" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P62" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4131,16 +4131,16 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P63" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4187,16 +4187,16 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P64" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q64">
         <v>4</v>
       </c>
       <c r="R64" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4243,16 +4243,16 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P65" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="Q65">
         <v>2</v>
       </c>
       <c r="R65" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4299,16 +4299,16 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="P66" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q66">
         <v>4</v>
       </c>
       <c r="R66" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
